--- a/data/trans_dic/P14B35-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P14B35-Provincia-trans_dic.xlsx
@@ -613,13 +613,13 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.0032482454976617</v>
+        <v>0.003213946296017631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003161747991897541</v>
+        <v>0.00316514874113424</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00133813041832104</v>
+        <v>0.001293473599670103</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.02738762342253489</v>
+        <v>0.02994888207818859</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02642216990008374</v>
+        <v>0.02595291306346624</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01236722221153327</v>
+        <v>0.01188505253592308</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0.003802549790937066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03391469477790057</v>
+        <v>0.03391469477790056</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.01204943281378595</v>
+        <v>0.0131320184379202</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01834687637504591</v>
+        <v>0.02039062428644827</v>
       </c>
     </row>
     <row r="9">
@@ -691,13 +691,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.04203868211577215</v>
+        <v>0.03881292836719976</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01149112816280902</v>
+        <v>0.0132214212487394</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05482204807403254</v>
+        <v>0.05595186181722294</v>
       </c>
     </row>
     <row r="10">
@@ -721,7 +721,7 @@
         <v>0.002734092928523754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.02052627800981904</v>
+        <v>0.02052627800981905</v>
       </c>
     </row>
     <row r="11">
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009201103910744765</v>
+        <v>0.008670477852115801</v>
       </c>
     </row>
     <row r="12">
@@ -751,13 +751,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01466645917035446</v>
+        <v>0.01447319520228031</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01367800292474243</v>
+        <v>0.01784051766119721</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04357782224720558</v>
+        <v>0.04169103138148327</v>
       </c>
     </row>
     <row r="13">
@@ -781,7 +781,7 @@
         <v>0.004853027327252579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03121043315195471</v>
+        <v>0.0312104331519547</v>
       </c>
     </row>
     <row r="14">
@@ -793,13 +793,13 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.002624036753602764</v>
+        <v>0.002598649218045865</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01680688729087058</v>
+        <v>0.01686474714223251</v>
       </c>
     </row>
     <row r="15">
@@ -811,13 +811,13 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.02518553716228046</v>
+        <v>0.02523139745503823</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01753716047622629</v>
+        <v>0.01720751374870984</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05840974935290867</v>
+        <v>0.05629999924517071</v>
       </c>
     </row>
     <row r="16">
@@ -841,7 +841,7 @@
         <v>0.009450555090544809</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02426701324594288</v>
+        <v>0.02426701324594287</v>
       </c>
     </row>
     <row r="17">
@@ -853,13 +853,13 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.0257793000966219</v>
+        <v>0.02244806160898435</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01111188067382335</v>
+        <v>0.01236923963200202</v>
       </c>
     </row>
     <row r="18">
@@ -871,13 +871,13 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.08935105888529399</v>
+        <v>0.08113458418539496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0303279593926789</v>
+        <v>0.03315494659630008</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0440529616870993</v>
+        <v>0.04490087971576606</v>
       </c>
     </row>
     <row r="19">
@@ -913,11 +913,11 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.003506679497457042</v>
+        <v>0.003498733620386216</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.01246483611968636</v>
+        <v>0.01220218652608813</v>
       </c>
     </row>
     <row r="21">
@@ -929,11 +929,11 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.03078325250952045</v>
+        <v>0.02932359969863997</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.04971130125544351</v>
+        <v>0.04938291073420017</v>
       </c>
     </row>
     <row r="22">
@@ -957,7 +957,7 @@
         <v>0.008361977350717332</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07708767284642308</v>
+        <v>0.07708767284642307</v>
       </c>
     </row>
     <row r="23">
@@ -969,13 +969,13 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.001562242381633705</v>
+        <v>0.001713347951065953</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003721612239391755</v>
+        <v>0.003122256129408297</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05927130584469463</v>
+        <v>0.05809841568618424</v>
       </c>
     </row>
     <row r="24">
@@ -987,13 +987,13 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.01748628825043839</v>
+        <v>0.01806040909131197</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01744797129536502</v>
+        <v>0.01870423333308842</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1011117584008254</v>
+        <v>0.1002845247598837</v>
       </c>
     </row>
     <row r="25">
@@ -1029,13 +1029,13 @@
       </c>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="n">
-        <v>0.002524071350847044</v>
+        <v>0.002465114161019256</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.004762401147828613</v>
+        <v>0.004456548169563116</v>
       </c>
     </row>
     <row r="27">
@@ -1047,13 +1047,13 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.0155026096988377</v>
+        <v>0.01459532274413536</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.009349873036841552</v>
+        <v>0.008437469265038688</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02097946915444362</v>
+        <v>0.02083085197074864</v>
       </c>
     </row>
     <row r="28">
@@ -1089,13 +1089,13 @@
       </c>
       <c r="C29" s="5" t="inlineStr"/>
       <c r="D29" s="5" t="n">
-        <v>0.009240369375185556</v>
+        <v>0.009214256397767618</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.002976919334980936</v>
+        <v>0.003163506210374268</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02625662940003529</v>
+        <v>0.0265779752464241</v>
       </c>
     </row>
     <row r="30">
@@ -1107,13 +1107,13 @@
       </c>
       <c r="C30" s="5" t="inlineStr"/>
       <c r="D30" s="5" t="n">
-        <v>0.01628327980634115</v>
+        <v>0.01667096135905205</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.007349480247965187</v>
+        <v>0.007730235636675035</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03940580678621171</v>
+        <v>0.03941339884312332</v>
       </c>
     </row>
     <row r="31">
@@ -1267,13 +1267,13 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7">
@@ -1285,13 +1285,13 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>7867</v>
+        <v>8603</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7628</v>
+        <v>7493</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>3909</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="8">
@@ -1347,13 +1347,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>6299</v>
+        <v>6865</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9939</v>
+        <v>11046</v>
       </c>
     </row>
     <row r="11">
@@ -1365,13 +1365,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>21976</v>
+        <v>20290</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6011</v>
+        <v>6916</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29698</v>
+        <v>30310</v>
       </c>
     </row>
     <row r="12">
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3279</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="15">
@@ -1445,13 +1445,13 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>5002</v>
+        <v>4936</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15530</v>
+        <v>14858</v>
       </c>
     </row>
     <row r="16">
@@ -1507,13 +1507,13 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7081</v>
+        <v>7106</v>
       </c>
     </row>
     <row r="19">
@@ -1525,13 +1525,13 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>9796</v>
+        <v>9814</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6792</v>
+        <v>6664</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24610</v>
+        <v>23721</v>
       </c>
     </row>
     <row r="20">
@@ -1587,13 +1587,13 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>5661</v>
+        <v>4929</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2520</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="23">
@@ -1605,13 +1605,13 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>19621</v>
+        <v>17816</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6629</v>
+        <v>7247</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9992</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="24">
@@ -1667,11 +1667,11 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>3279</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="27">
@@ -1683,11 +1683,11 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>8561</v>
+        <v>8155</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>13079</v>
+        <v>12993</v>
       </c>
     </row>
     <row r="28">
@@ -1743,13 +1743,13 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>1084</v>
+        <v>1189</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2573</v>
+        <v>2158</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>45444</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="31">
@@ -1761,13 +1761,13 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>12133</v>
+        <v>12531</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>12062</v>
+        <v>12930</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>77524</v>
+        <v>76890</v>
       </c>
     </row>
     <row r="32">
@@ -1823,13 +1823,13 @@
       </c>
       <c r="C34" s="6" t="inlineStr"/>
       <c r="D34" s="6" t="n">
-        <v>2076</v>
+        <v>2028</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3956</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="35">
@@ -1841,13 +1841,13 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>12752</v>
+        <v>12006</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>7725</v>
+        <v>6971</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>17426</v>
+        <v>17302</v>
       </c>
     </row>
     <row r="36">
@@ -1903,13 +1903,13 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>32841</v>
+        <v>32748</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>10552</v>
+        <v>11213</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>97746</v>
+        <v>98943</v>
       </c>
     </row>
     <row r="39">
@@ -1921,13 +1921,13 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>57872</v>
+        <v>59250</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>26051</v>
+        <v>27400</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>146697</v>
+        <v>146726</v>
       </c>
     </row>
     <row r="40">
